--- a/inst/extdata/2017ocwastestudy_sampleinfo.xlsx
+++ b/inst/extdata/2017ocwastestudy_sampleinfo.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsaul/Dropbox/Research/projects/ocwaste/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D397E176-5710-4847-8688-286E39987181}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC2AA4F-DAC8-FF4B-8922-2E39C7158075}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="460" windowWidth="13020" windowHeight="17040" xr2:uid="{DEBA6D13-A8A1-FC43-93E6-9EFE11373991}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{52654E94-ACF7-4CBF-B0CC-FCAD62843361}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="67">
   <si>
     <t>sample_id</t>
   </si>
@@ -42,10 +48,190 @@
     <t>Monday</t>
   </si>
   <si>
+    <t>Convenience Center</t>
+  </si>
+  <si>
     <t>Unincorporated (County Hauled)</t>
   </si>
   <si>
-    <t>Convenience Center</t>
+    <t>Waste Ind</t>
+  </si>
+  <si>
+    <t>Unincorporated (Private Haulers)</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Republic</t>
+  </si>
+  <si>
+    <t>Route 209</t>
+  </si>
+  <si>
+    <t>Chapel Hill</t>
+  </si>
+  <si>
+    <t>Route 204</t>
+  </si>
+  <si>
+    <t>Route 208</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Route 232</t>
+  </si>
+  <si>
+    <t>Route 207</t>
+  </si>
+  <si>
+    <t>Route 216</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Truck 807</t>
+  </si>
+  <si>
+    <t>Carrboro</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Truck 808</t>
+  </si>
+  <si>
+    <t>Truck 8229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hillsborough </t>
+  </si>
+  <si>
+    <t>Compactor</t>
+  </si>
+  <si>
+    <t>Truck 806</t>
+  </si>
+  <si>
+    <t>Truck 8207</t>
+  </si>
+  <si>
+    <t>Truck 9228</t>
+  </si>
+  <si>
+    <t>Truck 9224</t>
+  </si>
+  <si>
+    <t>Waste Magmt</t>
+  </si>
+  <si>
+    <t>Chapel Hill (Private)</t>
+  </si>
+  <si>
+    <t>Unic.County</t>
+  </si>
+  <si>
+    <t>Carrb</t>
+  </si>
+  <si>
+    <t>Rte224/207</t>
+  </si>
+  <si>
+    <t>Rte 224/227</t>
+  </si>
+  <si>
+    <t>Truck 3692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapel Hill </t>
+  </si>
+  <si>
+    <t>Truck 16014</t>
+  </si>
+  <si>
+    <t>Truck 3691</t>
+  </si>
+  <si>
+    <t>Truck 3678</t>
+  </si>
+  <si>
+    <t>Hillsborough</t>
+  </si>
+  <si>
+    <t>Truck 21510</t>
+  </si>
+  <si>
+    <t>Truck 1246</t>
+  </si>
+  <si>
+    <t>truck 1246</t>
+  </si>
+  <si>
+    <t>Truck 212892</t>
+  </si>
+  <si>
+    <t>Kitchens</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>Dorms</t>
+  </si>
+  <si>
+    <t>Reasearch</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>Multi-Use</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Unincorporated County</t>
+  </si>
+  <si>
+    <t>Schools Offices</t>
+  </si>
+  <si>
+    <t>Repulic</t>
+  </si>
+  <si>
+    <t>Efland</t>
+  </si>
+  <si>
+    <t>Truck 16174</t>
+  </si>
+  <si>
+    <t>Truck 3445</t>
+  </si>
+  <si>
+    <t>Truck 23650C</t>
+  </si>
+  <si>
+    <t>Truck 804</t>
+  </si>
+  <si>
+    <t>Truck 3677</t>
+  </si>
+  <si>
+    <t>Apartments</t>
+  </si>
+  <si>
+    <t>Schools</t>
+  </si>
+  <si>
+    <t>Government Offices</t>
+  </si>
+  <si>
+    <t>Truck 1249</t>
   </si>
 </sst>
 </file>
@@ -54,7 +240,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -396,59 +582,1488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFF956F-8DF1-DE46-87E7-9879DA740923}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8816980F-00AC-4EDF-B57D-C93904996BBA}">
+  <dimension ref="A2:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="1" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>37</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>32</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>48</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>53</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>55</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>40</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>44</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>29</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>33</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>50</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>26</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>38</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>51</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/2017ocwastestudy_sampleinfo.xlsx
+++ b/inst/extdata/2017ocwastestudy_sampleinfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsaul/Dropbox/Research/projects/ocwaste/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D961E06-400E-9B4C-9856-AEE92B87AFFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A2BDDC-3D93-294F-93AF-C5DE3919DD3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{52654E94-ACF7-4CBF-B0CC-FCAD62843361}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="62">
   <si>
     <t>sample_id</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Convenience Center</t>
   </si>
   <si>
-    <t>Unincorporated (County Hauled)</t>
-  </si>
-  <si>
-    <t>Unincorporated (Private Haulers)</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Compactor</t>
   </si>
   <si>
-    <t>Chapel Hill (Private)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chapel Hill </t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>com</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>Walnut Grove Compactor</t>
   </si>
   <si>
@@ -211,16 +199,35 @@
   </si>
   <si>
     <t>pdf_source</t>
+  </si>
+  <si>
+    <t>hauler</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,8 +253,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8816980F-00AC-4EDF-B57D-C93904996BBA}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I55" sqref="I49:I55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -573,9 +581,10 @@
     <col min="1" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="32.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,25 +595,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -615,16 +627,19 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -635,16 +650,19 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -655,16 +673,19 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14</v>
       </c>
@@ -672,59 +693,68 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>13</v>
       </c>
@@ -732,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>1002</v>
@@ -741,24 +771,27 @@
         <v>1883</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>1005</v>
@@ -767,24 +800,27 @@
         <v>10270</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>1004</v>
@@ -793,24 +829,27 @@
         <v>10267</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>212</v>
@@ -819,39 +858,45 @@
         <v>2604</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>4608</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -859,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>209</v>
@@ -868,16 +913,16 @@
         <v>13847</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -885,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>204</v>
@@ -894,16 +939,16 @@
         <v>9210</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -911,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>208</v>
@@ -920,24 +965,24 @@
         <v>7204</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>232</v>
@@ -946,47 +991,47 @@
         <v>13848</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>207</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>216</v>
@@ -995,62 +1040,62 @@
         <v>15446</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>807</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F20">
         <v>808</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1058,45 +1103,45 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F21">
         <v>8229</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F22">
         <v>8229</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1104,19 +1149,22 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1127,16 +1175,19 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1144,39 +1195,45 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>14</v>
       </c>
@@ -1184,30 +1241,33 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F27">
         <v>10759</v>
       </c>
       <c r="G27" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>1002</v>
@@ -1216,24 +1276,27 @@
         <v>10759</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>1002</v>
@@ -1242,62 +1305,71 @@
         <v>10759</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30">
         <v>2605</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>2604</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1305,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>208</v>
@@ -1314,16 +1386,16 @@
         <v>16329</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>9</v>
       </c>
@@ -1331,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E33">
         <v>209</v>
@@ -1340,16 +1412,16 @@
         <v>13847</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10</v>
       </c>
@@ -1357,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E34">
         <v>204</v>
@@ -1366,24 +1438,24 @@
         <v>13847</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E35">
         <v>232</v>
@@ -1392,24 +1464,24 @@
         <v>13848</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E36">
         <v>216</v>
@@ -1418,62 +1490,62 @@
         <v>15446</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F37">
         <v>806</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F38">
         <v>807</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1481,404 +1553,419 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F39">
         <v>8207</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F40">
         <v>8207</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F41">
         <v>9228</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F42">
         <v>9224</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F43">
         <v>9224</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F47">
         <v>806</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F49">
         <v>9224</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F50">
         <v>9224</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="J55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E56">
         <v>3003</v>
@@ -1887,70 +1974,70 @@
         <v>3692</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F57">
         <v>16014</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F58">
         <v>9224</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E59">
         <v>3003</v>
@@ -1959,85 +2046,85 @@
         <v>3692</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F60">
         <v>9228</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F61">
         <v>16014</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F62">
         <v>9228</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4</v>
       </c>
@@ -2045,45 +2132,45 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F63">
         <v>806</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F64">
         <v>806</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2091,7 +2178,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E65">
         <v>3000</v>
@@ -2100,16 +2187,16 @@
         <v>3678</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>15</v>
       </c>
@@ -2117,91 +2204,91 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F66">
         <v>210510</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F67">
         <v>1246</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F68">
         <v>1246</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F69">
         <v>212892</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I69" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7</v>
       </c>
@@ -2209,22 +2296,22 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>8</v>
       </c>
@@ -2232,137 +2319,137 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
-      </c>
-      <c r="H74" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G76" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I76" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>12</v>
       </c>
@@ -2370,226 +2457,226 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F77">
         <v>1246</v>
       </c>
       <c r="G77" t="s">
-        <v>27</v>
-      </c>
-      <c r="H77" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>55</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I78" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F79">
         <v>9228</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F80">
         <v>16174</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F82">
         <v>9228</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F83">
         <v>16174</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>46</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F85">
         <v>9228</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>8</v>
       </c>
@@ -2597,68 +2684,68 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F87">
         <v>804</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F88">
         <v>210510</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I88" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F89">
         <v>804</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I89" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2666,7 +2753,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E90">
         <v>3000</v>
@@ -2675,47 +2762,47 @@
         <v>3677</v>
       </c>
       <c r="G90" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I90" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F91">
         <v>1246</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I91" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>29</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E92">
         <v>3000</v>
@@ -2724,62 +2811,62 @@
         <v>3677</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I92" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F93">
         <v>1246</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I93" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F94">
         <v>212892</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2787,22 +2874,22 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>12</v>
       </c>
@@ -2810,22 +2897,22 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>21</v>
-      </c>
-      <c r="H96" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I96" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>13</v>
       </c>
@@ -2833,114 +2920,114 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G97" t="s">
-        <v>21</v>
-      </c>
-      <c r="H97" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I97" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J97" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I98" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I99" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I100" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G101" t="s">
-        <v>27</v>
-      </c>
-      <c r="H101" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>11</v>
       </c>
@@ -2948,19 +3035,19 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F102">
         <v>1249</v>
       </c>
       <c r="G102" t="s">
-        <v>27</v>
-      </c>
-      <c r="H102" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I102" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="J102" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
